--- a/MF-AssetUniverseMain.xlsx
+++ b/MF-AssetUniverseMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Offices\quniq\MF_port\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EFBF6B-43AD-4941-BA77-C0D7402FF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D3806-7DBF-4D08-9CB2-B2D2826989A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2820" windowWidth="31005" windowHeight="17505" tabRatio="842" activeTab="1" xr2:uid="{42C474AD-D4E0-4BB0-BB45-EC62B9EA8668}"/>
+    <workbookView xWindow="3285" yWindow="3270" windowWidth="23250" windowHeight="17505" tabRatio="842" activeTab="1" xr2:uid="{42C474AD-D4E0-4BB0-BB45-EC62B9EA8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,13 @@
     <sheet name="Hybrid-MultiAsset" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetUniverse!$A$1:$F$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetUniverse!$A$1:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Commodity&amp;Cash'!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Debt-BankingPSU'!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Debt-Corporate'!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Debt-Dynamic&amp;Floating'!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Debt-Medium&amp;MediumLong'!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Debt-Short&amp;UltraShort'!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="435">
   <si>
     <t>Berrywise</t>
   </si>
@@ -1207,6 +1211,168 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Min. Lumpsum</t>
+  </si>
+  <si>
+    <t>Min. Additional Lumpsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Min. SIP</t>
+  </si>
+  <si>
+    <t>Min. Additional SIP</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Multi Cap Fund - Growth</t>
+  </si>
+  <si>
+    <t>INF955L01674</t>
+  </si>
+  <si>
+    <t>Sundaram Multi Cap Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF173K01940</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Dividend Yield Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF209K01405</t>
+  </si>
+  <si>
+    <t>HDFC Dividend Yield Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF179KC1AR9</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Balanced Advantage Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF084M01AB8</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Regular Savings Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF209K01751</t>
+  </si>
+  <si>
+    <t>SBI Dynamic Bond Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF200K01958</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Dynamic Bond Regular Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF209K01793</t>
+  </si>
+  <si>
+    <t>Nippon India Floating Rate Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF204K01CG1</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Floating Interest Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF109K01AX1</t>
+  </si>
+  <si>
+    <t>Kotak Floating Rate Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF174KA1DY6</t>
+  </si>
+  <si>
+    <t>Kotak Corporate Bond Fund Standard-Growth</t>
+  </si>
+  <si>
+    <t>INF178L01BO1</t>
+  </si>
+  <si>
+    <t>Sundaram Corporate Bond Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF903J01HW6</t>
+  </si>
+  <si>
+    <t>HDFC Medium Term Debt Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF179K01913</t>
+  </si>
+  <si>
+    <t>Axis Strategic Bond Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF846K01BP2</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Bond Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF109K01BO8</t>
+  </si>
+  <si>
+    <t>Kotak Bond Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF174K01EM0</t>
+  </si>
+  <si>
+    <t>Axis Banking &amp; PSU Debt Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF846K01CB0</t>
+  </si>
+  <si>
+    <t>HDFC Banking and PSU Debt Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF179KA1JC4</t>
+  </si>
+  <si>
+    <t>Axis Short Term Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF846K01644</t>
+  </si>
+  <si>
+    <t>Nippon India Short Term Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF204K01FL4</t>
+  </si>
+  <si>
+    <t>INF174K01FD6</t>
+  </si>
+  <si>
+    <t>Kotak Savings Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>UTI Ultra Short Term Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF789F01570</t>
+  </si>
+  <si>
+    <t>Kotak Gold Fund Regular-Growth</t>
+  </si>
+  <si>
+    <t>INF174K01AT3</t>
+  </si>
+  <si>
+    <t>Nippon India Gold Savings Fund-Growth</t>
+  </si>
+  <si>
+    <t>INF204K01KN0</t>
   </si>
   <si>
     <t>Industry</t>
@@ -1219,7 +1385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,6 +1403,24 @@
       <color theme="1"/>
       <name val="Be Vietnam Pro"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1246,7 +1430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1449,11 +1633,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1465,6 +1662,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,39 +2036,39 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="23.45" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="36.6" customHeight="1" thickBot="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1874,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DCB89E-2402-4A29-8C60-44C077814CAB}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1890,7 +2098,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1909,8 +2117,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>165</v>
       </c>
@@ -1924,7 +2144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>167</v>
       </c>
@@ -1938,7 +2158,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>166</v>
       </c>
@@ -1952,7 +2172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>170</v>
       </c>
@@ -1966,7 +2186,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>171</v>
       </c>
@@ -1980,7 +2200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>169</v>
       </c>
@@ -1994,17 +2214,74 @@
         <v>168</v>
       </c>
     </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J11" xr:uid="{41DCB89E-2402-4A29-8C60-44C077814CAB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4E4F92-2ABA-45A0-B989-B00BD8E8D411}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2017,7 +2294,7 @@
     <col min="6" max="6" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2036,8 +2313,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>202</v>
       </c>
@@ -2051,7 +2340,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>204</v>
       </c>
@@ -2065,7 +2354,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>203</v>
       </c>
@@ -2086,10 +2375,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE546F1A-F7A4-40EB-A048-CBB432F82000}">
-  <dimension ref="A1:F9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2102,7 +2392,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2121,8 +2411,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
@@ -2136,7 +2438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
@@ -2150,7 +2452,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -2164,7 +2466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4" t="s">
         <v>163</v>
       </c>
@@ -2178,7 +2480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>150</v>
       </c>
@@ -2192,7 +2494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>151</v>
       </c>
@@ -2206,7 +2508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>153</v>
       </c>
@@ -2220,7 +2522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
@@ -2234,17 +2536,80 @@
         <v>149</v>
       </c>
     </row>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J11" xr:uid="{CE546F1A-F7A4-40EB-A048-CBB432F82000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="UltraShort"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBB276A-B4BD-4666-A68D-546D06F46C9C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2257,7 +2622,7 @@
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2276,8 +2641,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>74</v>
       </c>
@@ -2291,7 +2668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -2305,7 +2682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
@@ -2319,7 +2696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
@@ -2333,7 +2710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
@@ -2354,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C9843A-735D-40D9-9286-5E3480283946}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,7 +2747,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2389,8 +2766,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -2404,7 +2793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
@@ -2418,7 +2807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
@@ -2432,7 +2821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -2453,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926147CC-C688-494B-8B98-2EA8CD09F09D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2469,7 +2858,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2488,8 +2877,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
@@ -2503,7 +2904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>95</v>
       </c>
@@ -2517,7 +2918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>96</v>
       </c>
@@ -2528,6 +2929,34 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2538,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4720E647-ECAD-4787-8C24-A6FAAE2C0DBF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2554,7 +2983,7 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2573,8 +3002,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>105</v>
       </c>
@@ -2588,7 +3029,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>106</v>
       </c>
@@ -2602,7 +3043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +3057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>108</v>
       </c>
@@ -2630,7 +3071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -2644,7 +3085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
@@ -2665,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9D9C16-26BF-449B-829F-05BF76AC4292}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2681,7 +3122,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2700,8 +3141,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2715,7 +3168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -2729,7 +3182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -2743,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -2757,7 +3210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +3224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2785,7 +3238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2799,7 +3252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2820,15 +3273,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1799D0D-DD63-4946-BD6D-38C44D72947D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
@@ -2836,7 +3289,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2855,8 +3308,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -2870,7 +3335,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>206</v>
       </c>
@@ -2884,7 +3349,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>209</v>
       </c>
@@ -2898,7 +3363,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>207</v>
       </c>
@@ -2919,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9C7C5E-8170-4902-8F4F-2B3D753D1FC3}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2933,7 +3398,7 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2952,8 +3417,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -2967,7 +3444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -2981,7 +3458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -2995,7 +3472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -3009,7 +3486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -3030,28 +3507,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D712ADDB-E469-4A06-8DE0-4FEC891E30B2}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3061,46 +3542,58 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
         <v>378</v>
@@ -3109,12 +3602,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
         <v>378</v>
@@ -3123,12 +3616,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
         <v>378</v>
@@ -3137,12 +3630,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
         <v>378</v>
@@ -3151,12 +3644,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
         <v>378</v>
@@ -3165,68 +3658,68 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>345</v>
+        <v>429</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="E13" t="s">
         <v>140</v>
@@ -3235,138 +3728,138 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
         <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>253</v>
+        <v>397</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="E16" t="s">
         <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>270</v>
+        <v>200</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="E17" t="s">
         <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
         <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
         <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
         <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>417</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="E22" t="s">
         <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>265</v>
+        <v>183</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E23" t="s">
         <v>140</v>
@@ -3377,402 +3870,402 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>306</v>
+        <v>421</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="E24" t="s">
         <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>224</v>
+        <v>411</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="E25" t="s">
         <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>277</v>
+        <v>419</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
         <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
         <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>357</v>
+        <v>199</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="E30" t="s">
         <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
         <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>219</v>
+        <v>409</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="E32" t="s">
         <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
         <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>288</v>
+        <v>181</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="E34" t="s">
         <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
         <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>227</v>
+        <v>413</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="E36" t="s">
         <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
         <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
         <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>401</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="E39" t="s">
         <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
         <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="E42" t="s">
         <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="E43" t="s">
         <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>373</v>
+        <v>293</v>
       </c>
       <c r="E44" t="s">
         <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="E46" t="s">
         <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>375</v>
+        <v>415</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="E48" t="s">
         <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>229</v>
+        <v>405</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="E49" t="s">
         <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>293</v>
+        <v>182</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="E50" t="s">
         <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>334</v>
+        <v>403</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="E51" t="s">
         <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>362</v>
+        <v>426</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="E52" t="s">
         <v>140</v>
@@ -3783,430 +4276,430 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>350</v>
+        <v>399</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>238</v>
+        <v>423</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>352</v>
+        <v>395</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>263</v>
+        <v>407</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>341</v>
+        <v>427</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>287</v>
+        <v>387</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>343</v>
+        <v>383</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -4217,66 +4710,66 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -4287,458 +4780,458 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>304</v>
+        <v>389</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="4" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -4749,636 +5242,987 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="4" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="E137" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="E138" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="E139" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="4" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="E140" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="4" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E142" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="4" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="E143" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="E144" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="4" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="E145" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="E146" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="E147" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="E148" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="4" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="E149" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="E152" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="E153" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="E154" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="E155" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E156" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>283</v>
+        <v>385</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="E158" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="E159" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.45" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.45" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E166" t="s">
+        <v>111</v>
+      </c>
+      <c r="F166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E167" t="s">
+        <v>111</v>
+      </c>
+      <c r="F167" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E168" t="s">
+        <v>111</v>
+      </c>
+      <c r="F168" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169" t="s">
+        <v>111</v>
+      </c>
+      <c r="F169" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E170" t="s">
+        <v>111</v>
+      </c>
+      <c r="F170" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E171" t="s">
+        <v>111</v>
+      </c>
+      <c r="F171" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172" t="s">
+        <v>111</v>
+      </c>
+      <c r="F172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E173" t="s">
+        <v>111</v>
+      </c>
+      <c r="F173" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E174" t="s">
+        <v>111</v>
+      </c>
+      <c r="F174" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E175" t="s">
+        <v>111</v>
+      </c>
+      <c r="F175" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E176" t="s">
+        <v>111</v>
+      </c>
+      <c r="F176" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E177" t="s">
+        <v>111</v>
+      </c>
+      <c r="F177" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E178" t="s">
+        <v>111</v>
+      </c>
+      <c r="F178" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E179" t="s">
+        <v>111</v>
+      </c>
+      <c r="F179" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E180" t="s">
+        <v>111</v>
+      </c>
+      <c r="F180" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E181" t="s">
+        <v>111</v>
+      </c>
+      <c r="F181" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E182" t="s">
+        <v>111</v>
+      </c>
+      <c r="F182" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E183" t="s">
+        <v>111</v>
+      </c>
+      <c r="F183" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E184" t="s">
+        <v>111</v>
+      </c>
+      <c r="F184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E185" t="s">
+        <v>111</v>
+      </c>
+      <c r="F185" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E186" t="s">
+        <v>111</v>
+      </c>
+      <c r="F186" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E187" t="s">
+        <v>111</v>
+      </c>
+      <c r="F187" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E188" t="s">
+        <v>111</v>
+      </c>
+      <c r="F188" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E189" t="s">
+        <v>111</v>
+      </c>
+      <c r="F189" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E190" t="s">
+        <v>111</v>
+      </c>
+      <c r="F190" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F165" xr:uid="{D712ADDB-E469-4A06-8DE0-4FEC891E30B2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F52">
-      <sortCondition ref="E1:E165"/>
+  <autoFilter ref="A1:F190" xr:uid="{D712ADDB-E469-4A06-8DE0-4FEC891E30B2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F190">
+      <sortCondition ref="E1:E190"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E03E841-3149-4127-82EB-72404B9CADB6}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5391,7 +6235,7 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5410,8 +6254,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
@@ -5425,7 +6281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -5439,7 +6295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -5453,7 +6309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -5467,7 +6323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -5481,7 +6337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -5495,7 +6351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -5509,7 +6365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -5530,10 +6386,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFBB2DD-DBBF-4E73-80F7-DE5DF27078DE}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5546,7 +6402,7 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5565,8 +6421,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5580,7 +6448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -5594,7 +6462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -5608,7 +6476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -5622,7 +6490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -5636,7 +6504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -5650,7 +6518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -5664,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -5685,10 +6553,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B354C60C-C178-40B9-BEA3-B4732804E607}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5701,7 +6569,7 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5720,8 +6588,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -5735,7 +6615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -5749,7 +6629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -5763,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -5777,7 +6657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -5791,7 +6671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -5805,7 +6685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -5819,7 +6699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -5833,7 +6713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -5854,10 +6734,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4678B268-5083-476C-A945-22A7DA2F9DE0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5870,7 +6750,7 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5889,8 +6769,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -5904,7 +6796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -5918,7 +6810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -5932,7 +6824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -5943,6 +6835,34 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5953,10 +6873,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721818CD-2729-4214-BC19-A6E191FF3412}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5969,7 +6889,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5988,8 +6908,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -6003,7 +6935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -6017,7 +6949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -6031,7 +6963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>68</v>
       </c>
@@ -6052,10 +6984,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5BAFE8-34BE-4798-89E1-D095FEEE0771}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6068,7 +7000,7 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6087,8 +7019,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -6102,7 +7046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -6116,7 +7060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -6130,7 +7074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -6144,7 +7088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -6158,7 +7102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -6172,7 +7116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -6186,7 +7130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -6200,7 +7144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -6221,10 +7165,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BA8F2-5FE8-4FBA-AFE4-45DD6AD54DC3}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6237,7 +7181,7 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6256,8 +7200,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
@@ -6271,7 +7227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
@@ -6285,7 +7241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
@@ -6299,7 +7255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -6313,7 +7269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>102</v>
       </c>
@@ -6327,7 +7283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>101</v>
       </c>
@@ -6341,7 +7297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -6355,7 +7311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
@@ -6376,10 +7332,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A9227-656C-4916-989B-C58FAB28741B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6392,7 +7348,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6411,8 +7367,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -6426,7 +7394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -6440,7 +7408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -6454,7 +7422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
@@ -6468,7 +7436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6489,10 +7457,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B676DD-100A-4C05-B79F-99546B9253F1}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6505,7 +7473,7 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6524,8 +7492,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -6539,7 +7519,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>116</v>
       </c>
@@ -6553,7 +7533,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>118</v>
       </c>
@@ -6567,7 +7547,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
@@ -6581,7 +7561,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
@@ -6595,7 +7575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -6616,10 +7596,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F856435B-E329-4B29-8F94-08C1E3126B9F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6631,7 +7611,7 @@
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6650,8 +7630,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -6665,7 +7657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>123</v>
       </c>
@@ -6679,7 +7671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>119</v>
       </c>
@@ -6693,7 +7685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
@@ -6714,10 +7706,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765B6CBF-6E20-4253-816E-80EA0F961449}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F10" xr:uid="{765B6CBF-6E20-4253-816E-80EA0F961449}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+      <sortCondition ref="E1:E10"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4518BCE3-4C1C-4EF3-ADA1-1CDA348FB2DE}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C246FC65-235A-4816-A8FB-414044E7F1C3}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA8F4C-5A2F-4BBE-AA0D-6C9394C7DA42}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9C3580-7C39-4B4A-B67D-56EB6D6009EB}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6730,7 +8286,7 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6749,488 +8305,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" t="s">
-        <v>378</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F10" xr:uid="{765B6CBF-6E20-4253-816E-80EA0F961449}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4518BCE3-4C1C-4EF3-ADA1-1CDA348FB2DE}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C246FC65-235A-4816-A8FB-414044E7F1C3}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA8F4C-5A2F-4BBE-AA0D-6C9394C7DA42}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9C3580-7C39-4B4A-B67D-56EB6D6009EB}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>187</v>
       </c>
@@ -7244,7 +8332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>188</v>
       </c>
@@ -7258,7 +8346,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>185</v>
       </c>
@@ -7272,7 +8360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>186</v>
       </c>
@@ -7286,23 +8374,43 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
@@ -7314,10 +8422,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C00FAA9-9DD1-4ED5-948A-1BD3E90BD2B2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7328,7 +8436,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -7347,8 +8455,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>190</v>
       </c>
@@ -7362,7 +8482,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>191</v>
       </c>
@@ -7376,7 +8496,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>192</v>
       </c>
@@ -7390,7 +8510,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>193</v>
       </c>
@@ -7404,17 +8524,46 @@
         <v>189</v>
       </c>
     </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J7" xr:uid="{8C00FAA9-9DD1-4ED5-948A-1BD3E90BD2B2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60912EFC-8B97-4222-9C3D-8E08C1BFF51C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7427,7 +8576,7 @@
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -7446,8 +8595,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>197</v>
       </c>
@@ -7461,7 +8622,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>196</v>
       </c>
@@ -7475,7 +8636,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>195</v>
       </c>
@@ -7496,10 +8657,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9555CA-50D2-4A5F-9256-C8781ACA7612}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7512,7 +8673,7 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -7531,8 +8692,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>183</v>
       </c>
@@ -7546,7 +8719,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>181</v>
       </c>
@@ -7560,7 +8733,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>182</v>
       </c>
@@ -7574,7 +8747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>200</v>
       </c>
@@ -7588,7 +8761,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>199</v>
       </c>
@@ -7602,17 +8775,88 @@
         <v>198</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J11" xr:uid="{FA9555CA-50D2-4A5F-9256-C8781ACA7612}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CBB7BC-8701-4F4D-9B23-09CD28AC8107}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7623,7 +8867,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -7642,8 +8886,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>176</v>
       </c>
@@ -7657,7 +8913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
@@ -7671,7 +8927,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>177</v>
       </c>
@@ -7685,7 +8941,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>179</v>
       </c>
@@ -7699,7 +8955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>173</v>
       </c>
@@ -7720,10 +8976,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34826BC-F752-45EB-BC1E-D274F1A5A85A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7734,7 +8990,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -7753,8 +9009,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -7768,7 +9036,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -7782,7 +9050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
@@ -7796,7 +9064,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>158</v>
       </c>
